--- a/Videos&Notebooks/TODO.xlsx
+++ b/Videos&Notebooks/TODO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrayan/Documents/Data_Science/Notes/Videos&amp;Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrayan/Documents/Data_Science/DataScienceNotes/Videos&amp;Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4340B57-A5BB-B748-8591-5D1853903F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E8514-6CC7-A14F-AC13-623A25EA698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Videos&Notebooks/TODO.xlsx
+++ b/Videos&Notebooks/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrayan/Documents/Data_Science/DataScienceNotes/Videos&amp;Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316E8514-6CC7-A14F-AC13-623A25EA698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB1F8C-ADD2-C248-8A35-65F8A34DF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>GMT20210905 093022 Recording 1920x1080fs - YouTube</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FE-ft3m6d_o&amp;t=4s</t>
+  </si>
+  <si>
+    <t>Cassandra Database</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,9 +632,15 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -682,6 +694,7 @@
     <hyperlink ref="C10" r:id="rId15" display="https://www.youtube.com/watch?v=U1oqmWtcrsA&amp;t=2608s" xr:uid="{47154D6C-629A-48B4-A13B-C40FC2DF1B2B}"/>
     <hyperlink ref="E10" r:id="rId16" xr:uid="{12028915-6A61-491D-B258-737F498311AB}"/>
     <hyperlink ref="C11" r:id="rId17" display="https://www.youtube.com/watch?v=gFN9zCZgbY8&amp;t=10924s" xr:uid="{7E0BF58E-1618-4435-AA7D-2AE77FEAFE92}"/>
+    <hyperlink ref="C14" r:id="rId18" xr:uid="{4E1ABACE-B48D-9E43-ADA5-698749BD65D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
